--- a/2024 Waterloo/Finances/OE3C_2023_24_fundraising.xlsx
+++ b/2024 Waterloo/Finances/OE3C_2023_24_fundraising.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjvan\OneDrive\Desktop\write_papers\OE3C 2024\2024 Waterloo\Finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D053DF1-F368-458B-811D-A5B051B40D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C26BFB-EC4E-4F1C-93C5-651CCA0FD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="3" xr2:uid="{E9C194A3-1184-4BDE-BDAE-1B36C8736A15}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="881">
   <si>
     <t>Name</t>
   </si>
@@ -1673,9 +1673,6 @@
     <t>Sinauer Associates Inc Publishers</t>
   </si>
   <si>
-    <t>2002, 2003, 2004, 2005</t>
-  </si>
-  <si>
     <t>is now part of oxford university press??</t>
   </si>
   <si>
@@ -2673,6 +2670,18 @@
   </si>
   <si>
     <t>if no date is given for when organizations were contacted, then they were not contacted</t>
+  </si>
+  <si>
+    <t>2001, 2002</t>
+  </si>
+  <si>
+    <t>2001, 2010</t>
+  </si>
+  <si>
+    <t>2001, 2002, 2003, 2004, 2005</t>
+  </si>
+  <si>
+    <t>elsevier (academic press)</t>
   </si>
 </sst>
 </file>
@@ -16946,10 +16955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D72368-2065-4668-BBCE-34A576E03579}">
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18075,19 +18084,19 @@
         <v>543</v>
       </c>
       <c r="B32" s="54" t="s">
+        <v>879</v>
+      </c>
+      <c r="D32" t="s">
         <v>544</v>
-      </c>
-      <c r="D32" t="s">
-        <v>545</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>288</v>
       </c>
       <c r="L32" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="M32" t="s">
         <v>546</v>
-      </c>
-      <c r="M32" t="s">
-        <v>547</v>
       </c>
       <c r="N32" s="33">
         <v>45308</v>
@@ -18098,37 +18107,37 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>547</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>877</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="B33" s="54">
-        <v>2002</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="D33" s="24" t="s">
         <v>549</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>550</v>
       </c>
       <c r="E33" s="33">
         <v>45319</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G33" t="s">
         <v>347</v>
       </c>
       <c r="H33" s="100" t="s">
+        <v>551</v>
+      </c>
+      <c r="K33" t="s">
         <v>552</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>553</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>554</v>
-      </c>
-      <c r="M33" t="s">
-        <v>555</v>
       </c>
       <c r="N33" s="33">
         <v>45308</v>
@@ -18139,46 +18148,35 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>555</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>877</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="B34" s="54">
-        <v>2002</v>
-      </c>
-      <c r="D34" s="24" t="s">
+      <c r="K34" t="s">
         <v>557</v>
-      </c>
-      <c r="K34" t="s">
-        <v>558</v>
       </c>
       <c r="L34" s="19"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>559</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="D35" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="B35" s="54">
+        <v>2001</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="K35" t="s">
         <v>561</v>
       </c>
-      <c r="E35" s="33">
-        <v>45319</v>
-      </c>
-      <c r="F35" t="s">
-        <v>357</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="L35" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="M35" t="s">
         <v>563</v>
-      </c>
-      <c r="M35" t="s">
-        <v>564</v>
       </c>
       <c r="N35" s="33">
         <v>45308</v>
@@ -18189,16 +18187,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>565</v>
-      </c>
-      <c r="B36" s="54">
-        <v>2002</v>
+        <v>558</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>537</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E36" s="33">
         <v>45319</v>
@@ -18207,39 +18205,39 @@
         <v>357</v>
       </c>
       <c r="K36" t="s">
+        <v>567</v>
+      </c>
+      <c r="L36" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="M36" t="s">
         <v>569</v>
-      </c>
-      <c r="M36" t="s">
-        <v>570</v>
       </c>
       <c r="N36" s="33">
         <v>45309</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P36" t="s">
         <v>347</v>
       </c>
       <c r="Q36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B37" s="54">
         <v>2002</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="E37" s="33">
         <v>45319</v>
@@ -18248,13 +18246,13 @@
         <v>357</v>
       </c>
       <c r="K37" t="s">
+        <v>575</v>
+      </c>
+      <c r="L37" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="M37" t="s">
         <v>577</v>
-      </c>
-      <c r="M37" t="s">
-        <v>578</v>
       </c>
       <c r="N37" s="33">
         <v>45308</v>
@@ -18265,22 +18263,31 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>572</v>
+      </c>
+      <c r="B38" s="54">
+        <v>2002</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" s="33">
+        <v>45319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" t="s">
         <v>579</v>
       </c>
-      <c r="B38" s="54">
-        <v>2004</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="34"/>
-      <c r="K38" t="s">
+      <c r="L38" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="M38" t="s">
         <v>581</v>
-      </c>
-      <c r="M38" t="s">
-        <v>582</v>
       </c>
       <c r="N38" s="33">
         <v>45308</v>
@@ -18291,31 +18298,22 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B39" s="54">
-        <v>2002</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="D39" s="24" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="34"/>
+      <c r="K39" t="s">
         <v>585</v>
       </c>
-      <c r="E39" s="33">
-        <v>45319</v>
-      </c>
-      <c r="F39" t="s">
-        <v>357</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>586</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>587</v>
-      </c>
-      <c r="M39" t="s">
-        <v>588</v>
       </c>
       <c r="N39" s="33">
         <v>45308</v>
@@ -18325,86 +18323,95 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>589</v>
+      <c r="A40" t="s">
+        <v>582</v>
       </c>
       <c r="B40" s="54">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="D40" t="s">
-        <v>591</v>
+        <v>583</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>584</v>
       </c>
       <c r="E40" s="33">
-        <v>45322</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>592</v>
-      </c>
-      <c r="H40" s="46" t="s">
+        <v>45319</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
         <v>593</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>594</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" s="24" t="s">
         <v>595</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>596</v>
       </c>
       <c r="N40" s="33">
         <v>45309</v>
       </c>
       <c r="O40" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P40" t="s">
         <v>347</v>
       </c>
       <c r="Q40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>599</v>
+      <c r="A41" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="B41" s="54">
         <v>2010</v>
       </c>
+      <c r="C41" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="D41" t="s">
+        <v>590</v>
+      </c>
+      <c r="E41" s="33">
+        <v>45322</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>592</v>
+      </c>
       <c r="K41" t="s">
+        <v>599</v>
+      </c>
+      <c r="L41" t="s">
         <v>600</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>601</v>
-      </c>
-      <c r="M41" t="s">
-        <v>602</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B42" s="54">
         <v>2010</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="K42" t="s">
         <v>604</v>
-      </c>
-      <c r="K42" t="s">
-        <v>605</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>376</v>
       </c>
       <c r="M42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N42" s="33">
         <v>45319</v>
@@ -18415,22 +18422,22 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B43" s="54">
         <v>2010</v>
       </c>
       <c r="D43" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="K43" t="s">
         <v>608</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="M43" t="s">
         <v>610</v>
-      </c>
-      <c r="M43" t="s">
-        <v>611</v>
       </c>
       <c r="N43" s="33">
         <v>45308</v>
@@ -18441,65 +18448,68 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>606</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="K44" t="s">
         <v>612</v>
       </c>
-      <c r="B44" s="54">
-        <v>2010</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>613</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>614</v>
-      </c>
-      <c r="M44" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="54">
+        <v>2010</v>
+      </c>
+      <c r="K45" t="s">
         <v>616</v>
       </c>
-      <c r="B45" s="54">
-        <v>2012</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>617</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>618</v>
-      </c>
-      <c r="M45" t="s">
-        <v>619</v>
       </c>
       <c r="N45" s="33">
         <v>45319</v>
       </c>
       <c r="O45" s="44" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q45" t="s">
         <v>620</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>621</v>
-      </c>
-      <c r="R45" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B46" s="54">
         <v>2012</v>
       </c>
       <c r="K46" t="s">
+        <v>626</v>
+      </c>
+      <c r="L46" t="s">
         <v>627</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>628</v>
-      </c>
-      <c r="M46" t="s">
-        <v>629</v>
       </c>
       <c r="N46" s="33">
         <v>45319</v>
@@ -18510,31 +18520,19 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B47" s="54">
-        <v>2018</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="E47" s="33">
-        <v>45309</v>
-      </c>
-      <c r="F47" t="s">
-        <v>357</v>
+        <v>2012</v>
       </c>
       <c r="K47" t="s">
+        <v>633</v>
+      </c>
+      <c r="L47" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="M47" t="s">
         <v>635</v>
-      </c>
-      <c r="M47" t="s">
-        <v>636</v>
       </c>
       <c r="N47" s="33">
         <v>45308</v>
@@ -18545,29 +18543,31 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>195</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>630</v>
+        <v>623</v>
+      </c>
+      <c r="B48" s="54">
+        <v>2018</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>632</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28" t="s">
-        <v>633</v>
+        <v>625</v>
+      </c>
+      <c r="E48" s="33">
+        <v>45309</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
       </c>
       <c r="K48" t="s">
+        <v>639</v>
+      </c>
+      <c r="L48" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="M48" t="s">
         <v>641</v>
-      </c>
-      <c r="M48" t="s">
-        <v>642</v>
       </c>
       <c r="N48" s="33">
         <v>45308</v>
@@ -18578,54 +18578,58 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>637</v>
-      </c>
-      <c r="B49" s="54">
-        <v>2004</v>
+        <v>195</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>629</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="E49" s="33">
-        <v>45331</v>
-      </c>
-      <c r="F49" t="s">
-        <v>357</v>
+        <v>631</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28" t="s">
+        <v>632</v>
       </c>
       <c r="K49" t="s">
+        <v>645</v>
+      </c>
+      <c r="L49" t="s">
+        <v>600</v>
+      </c>
+      <c r="M49" t="s">
         <v>646</v>
-      </c>
-      <c r="L49" t="s">
-        <v>601</v>
-      </c>
-      <c r="M49" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B50" s="54">
         <v>2004</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>645</v>
+        <v>638</v>
+      </c>
+      <c r="E50" s="33">
+        <v>45331</v>
+      </c>
+      <c r="F50" t="s">
+        <v>357</v>
       </c>
       <c r="K50" t="s">
+        <v>649</v>
+      </c>
+      <c r="L50" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="L50" s="24" t="s">
+      <c r="M50" t="s">
         <v>651</v>
-      </c>
-      <c r="M50" t="s">
-        <v>652</v>
       </c>
       <c r="N50" s="33">
         <v>45322</v>
@@ -18636,22 +18640,25 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B51" s="54">
         <v>2004</v>
       </c>
+      <c r="C51" s="24" t="s">
+        <v>643</v>
+      </c>
       <c r="D51" s="24" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="K51" t="s">
+        <v>654</v>
+      </c>
+      <c r="L51" t="s">
         <v>655</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>656</v>
-      </c>
-      <c r="M51" t="s">
-        <v>657</v>
       </c>
       <c r="N51" s="33">
         <v>45308</v>
@@ -18662,22 +18669,22 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B52" s="54">
         <v>2004</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="K52" s="19" t="s">
         <v>325</v>
       </c>
       <c r="L52" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="M52" t="s">
         <v>661</v>
-      </c>
-      <c r="M52" t="s">
-        <v>662</v>
       </c>
       <c r="N52" s="33">
         <v>45308</v>
@@ -18688,31 +18695,22 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B53" s="54">
         <v>2004</v>
       </c>
-      <c r="C53" t="s">
-        <v>659</v>
-      </c>
       <c r="D53" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="E53" s="33">
-        <v>45331</v>
-      </c>
-      <c r="F53" t="s">
-        <v>357</v>
+        <v>653</v>
       </c>
       <c r="K53" s="19" t="s">
         <v>311</v>
       </c>
       <c r="L53" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="M53" s="24" t="s">
         <v>666</v>
-      </c>
-      <c r="M53" s="24" t="s">
-        <v>667</v>
       </c>
       <c r="N53" s="33">
         <v>45309</v>
@@ -18723,16 +18721,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B54" s="54">
         <v>2004</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>664</v>
+      <c r="C54" t="s">
+        <v>658</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E54" s="33">
         <v>45331</v>
@@ -18741,13 +18739,13 @@
         <v>357</v>
       </c>
       <c r="K54" t="s">
+        <v>670</v>
+      </c>
+      <c r="L54" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="M54" s="24" t="s">
         <v>672</v>
-      </c>
-      <c r="M54" s="24" t="s">
-        <v>673</v>
       </c>
       <c r="N54" s="33">
         <v>45309</v>
@@ -18758,25 +18756,31 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B55" s="54">
         <v>2004</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>670</v>
+        <v>664</v>
+      </c>
+      <c r="E55" s="33">
+        <v>45331</v>
+      </c>
+      <c r="F55" t="s">
+        <v>357</v>
       </c>
       <c r="K55" t="s">
+        <v>676</v>
+      </c>
+      <c r="L55" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="L55" s="19" t="s">
+      <c r="M55" s="24" t="s">
         <v>678</v>
-      </c>
-      <c r="M55" s="24" t="s">
-        <v>679</v>
       </c>
       <c r="N55" s="33">
         <v>45309</v>
@@ -18787,25 +18791,25 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B56" s="54">
         <v>2004</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="K56" t="s">
+        <v>685</v>
+      </c>
+      <c r="L56" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="L56" s="24" t="s">
+      <c r="M56" s="24" t="s">
         <v>687</v>
-      </c>
-      <c r="M56" s="24" t="s">
-        <v>688</v>
       </c>
       <c r="N56" s="33">
         <v>45309</v>
@@ -18816,93 +18820,78 @@
     </row>
     <row r="57" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B57" s="54">
-        <v>2024</v>
+        <v>2004</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="D57" t="s">
-        <v>682</v>
-      </c>
-      <c r="E57" s="33">
-        <v>45322</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="G57" t="s">
-        <v>341</v>
-      </c>
-      <c r="H57" t="s">
-        <v>683</v>
-      </c>
-      <c r="I57" t="s">
-        <v>684</v>
-      </c>
-      <c r="J57" t="s">
-        <v>685</v>
+        <v>674</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>675</v>
       </c>
       <c r="K57" t="s">
+        <v>694</v>
+      </c>
+      <c r="L57" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="L57" s="24" t="s">
+      <c r="M57" s="24" t="s">
         <v>696</v>
-      </c>
-      <c r="M57" s="24" t="s">
-        <v>697</v>
       </c>
       <c r="N57" s="33">
         <v>45309</v>
       </c>
       <c r="O57" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P57" t="s">
         <v>414</v>
       </c>
       <c r="Q57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
-        <v>689</v>
+      <c r="A58" t="s">
+        <v>679</v>
       </c>
       <c r="B58" s="54">
         <v>2024</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="D58" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="E58" s="33">
-        <v>45319</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>692</v>
+        <v>45322</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>340</v>
       </c>
       <c r="G58" t="s">
         <v>341</v>
       </c>
       <c r="H58" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="I58" t="s">
-        <v>694</v>
+        <v>683</v>
+      </c>
+      <c r="J58" t="s">
+        <v>684</v>
       </c>
       <c r="K58" t="s">
+        <v>703</v>
+      </c>
+      <c r="L58" t="s">
         <v>704</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" s="24" t="s">
         <v>705</v>
-      </c>
-      <c r="M58" s="24" t="s">
-        <v>706</v>
       </c>
       <c r="N58" s="33">
         <v>45309</v>
@@ -18912,38 +18901,41 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>700</v>
+      <c r="A59" s="19" t="s">
+        <v>688</v>
       </c>
       <c r="B59" s="54">
         <v>2024</v>
       </c>
-      <c r="C59" t="s">
-        <v>701</v>
+      <c r="C59" s="24" t="s">
+        <v>689</v>
       </c>
       <c r="D59" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="E59" s="33">
-        <v>45306</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>340</v>
+        <v>45319</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>691</v>
       </c>
       <c r="G59" t="s">
         <v>341</v>
       </c>
       <c r="H59" t="s">
-        <v>703</v>
+        <v>692</v>
+      </c>
+      <c r="I59" t="s">
+        <v>693</v>
       </c>
       <c r="K59" t="s">
+        <v>710</v>
+      </c>
+      <c r="L59" s="24" t="s">
         <v>711</v>
       </c>
-      <c r="L59" s="24" t="s">
+      <c r="M59" s="24" t="s">
         <v>712</v>
-      </c>
-      <c r="M59" s="24" t="s">
-        <v>713</v>
       </c>
       <c r="N59" s="33">
         <v>45309</v>
@@ -18954,37 +18946,37 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>320</v>
+        <v>699</v>
       </c>
       <c r="B60" s="54">
         <v>2024</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>708</v>
+      <c r="C60" t="s">
+        <v>700</v>
+      </c>
+      <c r="D60" t="s">
+        <v>701</v>
       </c>
       <c r="E60" s="33">
-        <v>45309</v>
+        <v>45306</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>709</v>
+        <v>340</v>
       </c>
       <c r="G60" t="s">
         <v>341</v>
       </c>
       <c r="H60" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="K60" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="L60" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="M60" s="24" t="s">
         <v>716</v>
-      </c>
-      <c r="M60" s="24" t="s">
-        <v>717</v>
       </c>
       <c r="N60" s="33">
         <v>45319</v>
@@ -18996,30 +18988,45 @@
         <v>341</v>
       </c>
       <c r="Q60" t="s">
+        <v>717</v>
+      </c>
+      <c r="R60" t="s">
         <v>718</v>
-      </c>
-      <c r="R60" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="B61" s="54">
-        <v>2013</v>
+        <v>2024</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>706</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>714</v>
+        <v>707</v>
+      </c>
+      <c r="E61" s="33">
+        <v>45309</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>708</v>
+      </c>
+      <c r="G61" t="s">
+        <v>341</v>
+      </c>
+      <c r="H61" t="s">
+        <v>709</v>
       </c>
       <c r="K61" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="L61" s="41" t="s">
         <v>721</v>
       </c>
-      <c r="L61" s="41" t="s">
+      <c r="M61" s="24" t="s">
         <v>722</v>
-      </c>
-      <c r="M61" s="24" t="s">
-        <v>723</v>
       </c>
       <c r="N61" s="33">
         <v>45319</v>
@@ -19028,25 +19035,27 @@
         <v>357</v>
       </c>
       <c r="R61" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>720</v>
+        <v>103</v>
       </c>
       <c r="B62" s="54">
-        <v>2006</v>
-      </c>
-      <c r="D62" s="24"/>
+        <v>2013</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>713</v>
+      </c>
       <c r="K62" t="s">
+        <v>725</v>
+      </c>
+      <c r="L62" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="L62" s="24" t="s">
+      <c r="M62" s="24" t="s">
         <v>727</v>
-      </c>
-      <c r="M62" s="24" t="s">
-        <v>728</v>
       </c>
       <c r="N62" s="33">
         <v>45323</v>
@@ -19055,25 +19064,25 @@
         <v>357</v>
       </c>
       <c r="R62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B63" s="54">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D63" s="24"/>
       <c r="K63" t="s">
+        <v>736</v>
+      </c>
+      <c r="L63" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="L63" s="24" t="s">
+      <c r="M63" s="24" t="s">
         <v>738</v>
-      </c>
-      <c r="M63" s="24" t="s">
-        <v>739</v>
       </c>
       <c r="N63" s="33">
         <v>45323</v>
@@ -19085,82 +19094,82 @@
         <v>414</v>
       </c>
       <c r="Q63" s="51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B64" s="54">
         <v>2009</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="D64" t="s">
-        <v>732</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>733</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>734</v>
-      </c>
-      <c r="G64" t="s">
-        <v>439</v>
-      </c>
-      <c r="H64" t="s">
-        <v>735</v>
-      </c>
-      <c r="I64" t="s">
-        <v>736</v>
-      </c>
+      <c r="D64" s="24"/>
       <c r="K64" t="s">
+        <v>741</v>
+      </c>
+      <c r="L64" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="L64" s="24" t="s">
+      <c r="M64" s="24" t="s">
         <v>743</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B65" s="54">
         <v>2009</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="52"/>
+      <c r="C65" s="24" t="s">
+        <v>730</v>
+      </c>
+      <c r="D65" t="s">
+        <v>731</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="F65" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="G65" t="s">
+        <v>439</v>
+      </c>
+      <c r="H65" t="s">
+        <v>734</v>
+      </c>
+      <c r="I65" t="s">
+        <v>735</v>
+      </c>
       <c r="M65" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B66" s="54">
         <v>2009</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B67" s="54">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B68" s="54">
         <v>2003</v>
@@ -19169,7 +19178,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B69" s="54">
         <v>2003</v>
@@ -19179,7 +19188,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B70" s="54">
         <v>2003</v>
@@ -19189,111 +19198,106 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B71" s="54">
         <v>2003</v>
       </c>
       <c r="D71" s="24"/>
-      <c r="N71" s="34"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B72" s="54">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D72" s="24"/>
       <c r="N72" s="34"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B73" s="54">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="D73" s="24"/>
       <c r="N73" s="34"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B74" s="54">
-        <v>1999</v>
+        <v>2019</v>
       </c>
       <c r="D74" s="24"/>
       <c r="N74" s="34"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
+      <c r="A75" t="s">
+        <v>753</v>
+      </c>
+      <c r="B75" s="54">
+        <v>1999</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="N75" s="34"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="B76" s="55">
+        <v>2023</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="B75" s="55">
-        <v>2023</v>
-      </c>
-      <c r="C75" s="24" t="s">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="45"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+    </row>
+    <row r="78" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" s="45"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-    </row>
-    <row r="77" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>757</v>
-      </c>
-      <c r="D77" s="35" t="s">
+      <c r="D78" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F78" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G78" s="10" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>758</v>
-      </c>
-      <c r="B78" s="101" t="s">
-        <v>759</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D78" s="33">
-        <v>45328</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>757</v>
+      </c>
+      <c r="B79" s="101" t="s">
         <v>758</v>
       </c>
-      <c r="B79" s="101" t="s">
-        <v>761</v>
-      </c>
       <c r="C79" s="46" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D79" s="33">
         <v>45328</v>
@@ -19301,210 +19305,210 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>758</v>
-      </c>
-      <c r="B80" s="102" t="s">
-        <v>763</v>
+        <v>757</v>
+      </c>
+      <c r="B80" s="101" t="s">
+        <v>760</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>764</v>
+        <v>761</v>
+      </c>
+      <c r="D80" s="33">
+        <v>45328</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>758</v>
-      </c>
-      <c r="B81" s="103" t="s">
-        <v>765</v>
+        <v>757</v>
+      </c>
+      <c r="B81" s="102" t="s">
+        <v>762</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>766</v>
-      </c>
-      <c r="D81" s="33">
-        <v>45328</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="F81" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>758</v>
-      </c>
-      <c r="B82" s="57" t="s">
-        <v>769</v>
+        <v>757</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>764</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D82" s="33">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>771</v>
+        <v>766</v>
+      </c>
+      <c r="F82" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>772</v>
-      </c>
-      <c r="B83" s="101" t="s">
-        <v>773</v>
-      </c>
-      <c r="C83" s="100" t="s">
-        <v>774</v>
+        <v>757</v>
+      </c>
+      <c r="B83" s="57" t="s">
+        <v>768</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>769</v>
       </c>
       <c r="D83" s="33">
-        <v>45328</v>
+        <v>45329</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>771</v>
+      </c>
+      <c r="B84" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="B84" s="101" t="s">
-        <v>775</v>
-      </c>
       <c r="C84" s="100" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D84" s="33">
         <v>45328</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="47" t="s">
-        <v>777</v>
-      </c>
-      <c r="B85" s="103" t="s">
-        <v>778</v>
+      <c r="A85" t="s">
+        <v>771</v>
+      </c>
+      <c r="B85" s="101" t="s">
+        <v>774</v>
       </c>
       <c r="C85" s="100" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D85" s="33">
-        <v>45330</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>780</v>
+        <v>45328</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="B86" s="103" t="s">
         <v>777</v>
       </c>
-      <c r="B86" s="58" t="s">
-        <v>781</v>
-      </c>
       <c r="C86" s="100" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D86" s="33">
         <v>45330</v>
       </c>
+      <c r="E86" s="28" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>783</v>
-      </c>
-      <c r="B87" s="57" t="s">
-        <v>784</v>
-      </c>
-      <c r="C87" t="s">
-        <v>785</v>
+      <c r="A87" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>780</v>
+      </c>
+      <c r="C87" s="100" t="s">
+        <v>781</v>
       </c>
       <c r="D87" s="33">
-        <v>45328</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>786</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>782</v>
+      </c>
+      <c r="B88" s="57" t="s">
         <v>783</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="C88" t="s">
+        <v>784</v>
+      </c>
+      <c r="D88" s="33">
+        <v>45328</v>
+      </c>
+      <c r="E88" s="28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>782</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>786</v>
+      </c>
+      <c r="C89" t="s">
         <v>787</v>
-      </c>
-      <c r="C88" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="47" t="s">
-        <v>789</v>
-      </c>
-      <c r="B89" s="59" t="s">
-        <v>790</v>
-      </c>
-      <c r="C89" t="s">
-        <v>791</v>
-      </c>
-      <c r="D89" s="33">
-        <v>45330</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="B90" s="59" t="s">
         <v>789</v>
       </c>
-      <c r="B90" s="60" t="s">
-        <v>793</v>
-      </c>
       <c r="C90" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D90" s="33">
         <v>45330</v>
       </c>
+      <c r="E90" s="28" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>795</v>
-      </c>
-      <c r="B91" s="59" t="s">
-        <v>796</v>
+      <c r="A91" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="B91" s="60" t="s">
+        <v>792</v>
       </c>
       <c r="C91" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="D91" s="33">
-        <v>45328</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>797</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>794</v>
+      </c>
+      <c r="B92" s="59" t="s">
         <v>795</v>
       </c>
-      <c r="B92" s="61" t="s">
-        <v>798</v>
-      </c>
       <c r="C92" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="D92" s="33">
         <v>45328</v>
       </c>
+      <c r="E92" s="28" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C93" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D93" s="33">
         <v>45328</v>
@@ -19512,13 +19516,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>799</v>
+      </c>
+      <c r="B94" s="61" t="s">
         <v>800</v>
       </c>
-      <c r="B94" s="60" t="s">
-        <v>803</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>804</v>
+      <c r="C94" t="s">
+        <v>801</v>
       </c>
       <c r="D94" s="33">
         <v>45328</v>
@@ -19526,109 +19530,109 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>800</v>
-      </c>
-      <c r="B95" s="59" t="s">
-        <v>805</v>
-      </c>
-      <c r="C95" t="s">
-        <v>806</v>
+        <v>799</v>
+      </c>
+      <c r="B95" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>803</v>
       </c>
       <c r="D95" s="33">
         <v>45328</v>
       </c>
-      <c r="E95" s="28" t="s">
-        <v>807</v>
-      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="B96" s="60" t="s">
-        <v>809</v>
+      <c r="A96" t="s">
+        <v>799</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>804</v>
       </c>
       <c r="C96" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="D96" s="33">
-        <v>45330</v>
+        <v>45328</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="47" t="s">
+        <v>807</v>
+      </c>
+      <c r="B97" s="60" t="s">
         <v>808</v>
       </c>
-      <c r="B97" s="59" t="s">
-        <v>811</v>
-      </c>
       <c r="C97" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D97" s="33">
         <v>45330</v>
       </c>
-      <c r="E97" t="s">
-        <v>813</v>
-      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="B98" s="57" t="s">
-        <v>814</v>
-      </c>
-      <c r="D98" s="33" t="s">
-        <v>815</v>
+        <v>807</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="C98" t="s">
+        <v>811</v>
+      </c>
+      <c r="D98" s="33">
+        <v>45330</v>
       </c>
       <c r="E98" t="s">
-        <v>816</v>
-      </c>
-      <c r="F98" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="47" t="s">
-        <v>808</v>
-      </c>
-      <c r="B99" s="60" t="s">
-        <v>818</v>
-      </c>
-      <c r="C99" t="s">
-        <v>819</v>
-      </c>
-      <c r="D99" s="33">
-        <v>45330</v>
+        <v>807</v>
+      </c>
+      <c r="B99" s="57" t="s">
+        <v>813</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>814</v>
       </c>
       <c r="E99" t="s">
-        <v>820</v>
+        <v>815</v>
+      </c>
+      <c r="F99" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="47" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="B100" s="60" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C100" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D100" s="33">
         <v>45330</v>
       </c>
+      <c r="E100" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="B101" s="60" t="s">
         <v>821</v>
       </c>
-      <c r="B101" s="61" t="s">
-        <v>823</v>
-      </c>
       <c r="C101" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="D101" s="33">
         <v>45330</v>
@@ -19636,58 +19640,58 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>821</v>
-      </c>
-      <c r="B102" s="60" t="s">
-        <v>825</v>
-      </c>
-      <c r="C102" s="46" t="s">
-        <v>826</v>
+        <v>820</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>822</v>
+      </c>
+      <c r="C102" t="s">
+        <v>823</v>
       </c>
       <c r="D102" s="33">
         <v>45330</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>827</v>
-      </c>
-      <c r="B103" s="59" t="s">
-        <v>828</v>
-      </c>
-      <c r="C103" t="s">
-        <v>829</v>
+      <c r="A103" s="47" t="s">
+        <v>820</v>
+      </c>
+      <c r="B103" s="60" t="s">
+        <v>824</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>825</v>
       </c>
       <c r="D103" s="33">
-        <v>45328</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>830</v>
+        <v>45330</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>826</v>
+      </c>
+      <c r="B104" s="59" t="s">
         <v>827</v>
       </c>
-      <c r="B104" s="61" t="s">
-        <v>831</v>
-      </c>
       <c r="C104" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D104" s="33">
         <v>45328</v>
       </c>
+      <c r="E104" s="28" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="47" t="s">
-        <v>833</v>
-      </c>
-      <c r="B105" s="60" t="s">
-        <v>834</v>
+      <c r="A105" t="s">
+        <v>826</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>830</v>
       </c>
       <c r="C105" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D105" s="33">
         <v>45328</v>
@@ -19695,78 +19699,78 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="B106" s="60" t="s">
         <v>833</v>
       </c>
-      <c r="B106" s="59" t="s">
-        <v>836</v>
-      </c>
       <c r="C106" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D106" s="33">
         <v>45328</v>
       </c>
-      <c r="E106" s="28" t="s">
-        <v>838</v>
-      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="47" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B107" s="59" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C107" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D107" s="33">
         <v>45328</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>807</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="47" t="s">
-        <v>833</v>
-      </c>
-      <c r="B108" s="57" t="s">
-        <v>841</v>
+        <v>832</v>
+      </c>
+      <c r="B108" s="59" t="s">
+        <v>838</v>
       </c>
       <c r="C108" t="s">
-        <v>842</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>843</v>
+        <v>839</v>
+      </c>
+      <c r="D108" s="33">
+        <v>45328</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="47" t="s">
-        <v>845</v>
-      </c>
-      <c r="B109" s="60" t="s">
-        <v>846</v>
+        <v>832</v>
+      </c>
+      <c r="B109" s="57" t="s">
+        <v>840</v>
       </c>
       <c r="C109" t="s">
-        <v>810</v>
-      </c>
-      <c r="D109" s="33">
-        <v>45330</v>
+        <v>841</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>842</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="B110" s="60" t="s">
         <v>845</v>
       </c>
-      <c r="B110" s="60" t="s">
-        <v>847</v>
-      </c>
       <c r="C110" t="s">
-        <v>848</v>
+        <v>809</v>
       </c>
       <c r="D110" s="33">
         <v>45330</v>
@@ -19774,44 +19778,44 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="47" t="s">
-        <v>845</v>
-      </c>
-      <c r="B111" s="62" t="s">
-        <v>849</v>
-      </c>
-      <c r="C111" s="46" t="s">
-        <v>850</v>
+        <v>844</v>
+      </c>
+      <c r="B111" s="60" t="s">
+        <v>846</v>
+      </c>
+      <c r="C111" t="s">
+        <v>847</v>
       </c>
       <c r="D111" s="33">
         <v>45330</v>
       </c>
-      <c r="E111" s="28" t="s">
-        <v>851</v>
-      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>852</v>
-      </c>
-      <c r="B112" s="58" t="s">
-        <v>853</v>
-      </c>
-      <c r="C112" s="100" t="s">
-        <v>810</v>
+      <c r="A112" s="47" t="s">
+        <v>844</v>
+      </c>
+      <c r="B112" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>849</v>
       </c>
       <c r="D112" s="33">
-        <v>45328</v>
+        <v>45330</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>851</v>
+      </c>
+      <c r="B113" s="58" t="s">
         <v>852</v>
       </c>
-      <c r="B113" s="101" t="s">
-        <v>854</v>
-      </c>
-      <c r="C113" s="46" t="s">
-        <v>855</v>
+      <c r="C113" s="100" t="s">
+        <v>809</v>
       </c>
       <c r="D113" s="33">
         <v>45328</v>
@@ -19819,13 +19823,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>856</v>
-      </c>
-      <c r="B114" s="60" t="s">
-        <v>857</v>
-      </c>
-      <c r="C114" t="s">
-        <v>858</v>
+        <v>851</v>
+      </c>
+      <c r="B114" s="101" t="s">
+        <v>853</v>
+      </c>
+      <c r="C114" s="46" t="s">
+        <v>854</v>
       </c>
       <c r="D114" s="33">
         <v>45328</v>
@@ -19833,13 +19837,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>855</v>
+      </c>
+      <c r="B115" s="60" t="s">
         <v>856</v>
       </c>
-      <c r="B115" s="60" t="s">
-        <v>859</v>
-      </c>
       <c r="C115" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D115" s="33">
         <v>45328</v>
@@ -19847,107 +19851,121 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B116" s="60" t="s">
-        <v>861</v>
-      </c>
-      <c r="C116" s="46" t="s">
-        <v>862</v>
+        <v>858</v>
+      </c>
+      <c r="C116" t="s">
+        <v>859</v>
       </c>
       <c r="D116" s="33">
         <v>45328</v>
       </c>
-      <c r="E116" t="s">
-        <v>863</v>
-      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>864</v>
-      </c>
-      <c r="B117" s="59" t="s">
-        <v>865</v>
+        <v>855</v>
+      </c>
+      <c r="B117" s="60" t="s">
+        <v>860</v>
       </c>
       <c r="C117" s="46" t="s">
-        <v>785</v>
+        <v>861</v>
       </c>
       <c r="D117" s="33">
         <v>45328</v>
       </c>
-      <c r="E117" s="99" t="s">
-        <v>866</v>
+      <c r="E117" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>863</v>
+      </c>
+      <c r="B118" s="59" t="s">
         <v>864</v>
       </c>
-      <c r="B118" s="60" t="s">
-        <v>867</v>
-      </c>
       <c r="C118" s="46" t="s">
-        <v>868</v>
+        <v>784</v>
       </c>
       <c r="D118" s="33">
         <v>45328</v>
       </c>
+      <c r="E118" s="99" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B119" s="60" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D119" s="33">
         <v>45328</v>
       </c>
-      <c r="E119" t="s">
-        <v>871</v>
-      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>253</v>
-      </c>
-      <c r="F120" s="24" t="s">
-        <v>872</v>
+        <v>863</v>
+      </c>
+      <c r="B120" s="60" t="s">
+        <v>868</v>
+      </c>
+      <c r="C120" s="46" t="s">
+        <v>869</v>
+      </c>
+      <c r="D120" s="33">
+        <v>45328</v>
+      </c>
+      <c r="E120" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="47" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="47" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="28" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="28" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="27" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>876</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>877</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C64" r:id="rId1" xr:uid="{D7B906C2-CD75-4902-A719-D3FD68C0CD94}"/>
+    <hyperlink ref="C65" r:id="rId1" xr:uid="{D7B906C2-CD75-4902-A719-D3FD68C0CD94}"/>
     <hyperlink ref="L27" r:id="rId2" display="mailto:stepintonature@conservationontario.ca" xr:uid="{7AA71DB0-A879-4A77-A431-F6420E0E8627}"/>
-    <hyperlink ref="C40" r:id="rId3" display="mailto:info@ontarionature.org" xr:uid="{91C9C510-2C29-4392-96A1-45D08DE36176}"/>
+    <hyperlink ref="C41" r:id="rId3" display="mailto:info@ontarionature.org" xr:uid="{91C9C510-2C29-4392-96A1-45D08DE36176}"/>
     <hyperlink ref="L31" r:id="rId4" xr:uid="{F6A436EA-4C12-4F03-99FB-59F72ECDDFA0}"/>
     <hyperlink ref="L30" r:id="rId5" xr:uid="{35134F21-B6DE-4BD0-B7B0-E13C0663A88F}"/>
     <hyperlink ref="L53" r:id="rId6" xr:uid="{83E03112-3780-4E66-A944-334D9517388B}"/>
@@ -19982,7 +20000,7 @@
     <hyperlink ref="L50" r:id="rId35" xr:uid="{7B1A5BF1-B351-41C4-ABEB-E0643B0D98B6}"/>
     <hyperlink ref="C25" r:id="rId36" xr:uid="{229077FC-82F9-4CCD-8EF2-BE5BD4D7640F}"/>
     <hyperlink ref="L24" r:id="rId37" xr:uid="{0CD8A24F-406D-424B-A243-E42837F8C176}"/>
-    <hyperlink ref="C58" r:id="rId38" xr:uid="{37167343-6251-473B-A672-3D8AD2061DDD}"/>
+    <hyperlink ref="C59" r:id="rId38" xr:uid="{37167343-6251-473B-A672-3D8AD2061DDD}"/>
     <hyperlink ref="C23" r:id="rId39" display="mailto:groupcommunications@oup.com" xr:uid="{6F13E102-BD7B-43A4-90F9-0D7A8A659B00}"/>
     <hyperlink ref="L13" r:id="rId40" display="mailto:sales@sablesys.com" xr:uid="{397E9F7C-A898-4350-95F8-8BA4DB9701A1}"/>
     <hyperlink ref="L12" r:id="rId41" xr:uid="{06C585F3-E5A7-4BF3-BE0C-F6CA70244199}"/>
@@ -20001,13 +20019,13 @@
     <hyperlink ref="M57" r:id="rId54" xr:uid="{C3960FA8-E40E-4D61-900F-356511275E48}"/>
     <hyperlink ref="L57" r:id="rId55" xr:uid="{A79D7400-88CC-426A-B496-6531364E995E}"/>
     <hyperlink ref="M58" r:id="rId56" xr:uid="{ED4830AB-29F8-4F17-AA47-A0A162D19A38}"/>
-    <hyperlink ref="D60" r:id="rId57" xr:uid="{D0467B25-DB5C-44FF-8F27-1D7A26770186}"/>
-    <hyperlink ref="C60" r:id="rId58" xr:uid="{68FCBFFD-C3BF-4B5F-A931-5322FB962876}"/>
+    <hyperlink ref="D61" r:id="rId57" xr:uid="{D0467B25-DB5C-44FF-8F27-1D7A26770186}"/>
+    <hyperlink ref="C61" r:id="rId58" xr:uid="{68FCBFFD-C3BF-4B5F-A931-5322FB962876}"/>
     <hyperlink ref="M53" r:id="rId59" xr:uid="{6FE1E72A-C677-4164-9917-9DC51EFD92A3}"/>
     <hyperlink ref="M59" r:id="rId60" xr:uid="{48458FC0-0024-4513-8900-30B99CD530A5}"/>
     <hyperlink ref="L59" r:id="rId61" xr:uid="{183D1910-B14E-42A1-B574-3813D41FEFB5}"/>
-    <hyperlink ref="D47" r:id="rId62" xr:uid="{DFA51CDD-E195-4D8C-B1BD-5DB17A876BFF}"/>
-    <hyperlink ref="C47" r:id="rId63" xr:uid="{9A105C50-5D1B-46F0-9727-748CA2276183}"/>
+    <hyperlink ref="D48" r:id="rId62" xr:uid="{DFA51CDD-E195-4D8C-B1BD-5DB17A876BFF}"/>
+    <hyperlink ref="C48" r:id="rId63" xr:uid="{9A105C50-5D1B-46F0-9727-748CA2276183}"/>
     <hyperlink ref="Q15" r:id="rId64" display="All requests for funding / donations must go through our Outdoor Fund application process. https://about.basspro.com/conservation/outdoor-fund/" xr:uid="{E7CDA19E-27A3-4ABE-8FC6-EEAF43A7F27A}"/>
     <hyperlink ref="O15" r:id="rId65" xr:uid="{DAA9DDE4-7DF2-428C-A285-19EB1C98B2EF}"/>
     <hyperlink ref="M10" r:id="rId66" xr:uid="{9C7F923E-FB49-4689-B67D-63999C90FAAB}"/>
@@ -20021,18 +20039,18 @@
     <hyperlink ref="D33" r:id="rId74" xr:uid="{8DBD833F-582D-4790-BDDC-C7472B757978}"/>
     <hyperlink ref="C33" r:id="rId75" xr:uid="{4DE0A9DB-362F-477A-AAFE-9F44B91E923E}"/>
     <hyperlink ref="D34" r:id="rId76" xr:uid="{2F58319D-8BC3-4A53-80B3-3629CF95F33A}"/>
-    <hyperlink ref="D35" r:id="rId77" xr:uid="{1D3CCDC5-E3E8-402C-B02C-BE3B39F7A1C9}"/>
-    <hyperlink ref="D37" r:id="rId78" xr:uid="{16E6CB1B-B66C-40DE-A156-322F99A7F9E0}"/>
-    <hyperlink ref="C37" r:id="rId79" xr:uid="{CF264ACA-CD68-4936-9FDB-EF492BA4D83F}"/>
-    <hyperlink ref="D39" r:id="rId80" xr:uid="{5AA383FB-B639-4859-BAD5-84D779900B62}"/>
-    <hyperlink ref="C39" r:id="rId81" xr:uid="{8AAB641A-E7F3-42DA-BDF8-BB3572F0362A}"/>
-    <hyperlink ref="D36" r:id="rId82" xr:uid="{CE1642F3-0483-4770-9089-0E302501AF4A}"/>
-    <hyperlink ref="C36" r:id="rId83" xr:uid="{76E7BD5D-59E1-4472-82CF-A8E6FB973D9F}"/>
-    <hyperlink ref="C35" r:id="rId84" xr:uid="{B3D1239B-1F83-4852-A05F-CCA28FC4AFBE}"/>
-    <hyperlink ref="D43" r:id="rId85" xr:uid="{8E09AC02-27BC-4343-B9BB-9CFC86E9C395}"/>
-    <hyperlink ref="D42" r:id="rId86" xr:uid="{FAD4223F-27CC-4D6F-8999-801946520F18}"/>
+    <hyperlink ref="D36" r:id="rId77" xr:uid="{1D3CCDC5-E3E8-402C-B02C-BE3B39F7A1C9}"/>
+    <hyperlink ref="D38" r:id="rId78" xr:uid="{16E6CB1B-B66C-40DE-A156-322F99A7F9E0}"/>
+    <hyperlink ref="C38" r:id="rId79" xr:uid="{CF264ACA-CD68-4936-9FDB-EF492BA4D83F}"/>
+    <hyperlink ref="D40" r:id="rId80" xr:uid="{5AA383FB-B639-4859-BAD5-84D779900B62}"/>
+    <hyperlink ref="C40" r:id="rId81" xr:uid="{8AAB641A-E7F3-42DA-BDF8-BB3572F0362A}"/>
+    <hyperlink ref="D37" r:id="rId82" xr:uid="{CE1642F3-0483-4770-9089-0E302501AF4A}"/>
+    <hyperlink ref="C37" r:id="rId83" xr:uid="{76E7BD5D-59E1-4472-82CF-A8E6FB973D9F}"/>
+    <hyperlink ref="C36" r:id="rId84" xr:uid="{B3D1239B-1F83-4852-A05F-CCA28FC4AFBE}"/>
+    <hyperlink ref="D44" r:id="rId85" xr:uid="{8E09AC02-27BC-4343-B9BB-9CFC86E9C395}"/>
+    <hyperlink ref="D43" r:id="rId86" xr:uid="{FAD4223F-27CC-4D6F-8999-801946520F18}"/>
     <hyperlink ref="M25" r:id="rId87" xr:uid="{E3FCB9EF-C1F8-4B6F-8742-3AEC7EB0F69B}"/>
-    <hyperlink ref="F58" r:id="rId88" xr:uid="{F12DC491-EA4F-47D7-9DD7-6BC2D1F456CD}"/>
+    <hyperlink ref="F59" r:id="rId88" xr:uid="{F12DC491-EA4F-47D7-9DD7-6BC2D1F456CD}"/>
     <hyperlink ref="F33" r:id="rId89" xr:uid="{84728FB2-C1F7-4BB9-AD36-EF5475CC2628}"/>
     <hyperlink ref="L16" r:id="rId90" xr:uid="{206CE3B5-C2B4-4A71-BE26-77853EEC5ABE}"/>
     <hyperlink ref="M63" r:id="rId91" xr:uid="{5E3C0F22-A2BA-4E5D-8673-081CFE8ED09A}"/>
@@ -20044,48 +20062,48 @@
     <hyperlink ref="M17" r:id="rId97" xr:uid="{DA3399DB-2DCC-43FB-9147-3CECED5B5BF6}"/>
     <hyperlink ref="M62" r:id="rId98" xr:uid="{317E4F07-733F-4DC1-8911-0062B79A48DA}"/>
     <hyperlink ref="L62" r:id="rId99" xr:uid="{4C5C837E-DDB8-4919-98BB-D44F9B1D8955}"/>
-    <hyperlink ref="B86" r:id="rId100" display="askandalis@brocku.ca" xr:uid="{D10E3622-F858-4704-BE04-9658A397EAA1}"/>
-    <hyperlink ref="B87" r:id="rId101" xr:uid="{D359721B-FF96-4DFE-B4A8-614EE53F1A30}"/>
-    <hyperlink ref="B92" r:id="rId102" display="kkuepfercrane@wlu.ca" xr:uid="{939D39E6-809A-4FE2-A7D9-7A5262706E49}"/>
-    <hyperlink ref="B93" r:id="rId103" display="newman01@uoguelph.ca, ibchair@uoguelph.ca" xr:uid="{3CA92E8B-25B9-4C3F-A7B0-FF3C549C1D9C}"/>
-    <hyperlink ref="B101" r:id="rId104" xr:uid="{FBC48548-79A4-4664-AE05-B3B0CBCB9809}"/>
-    <hyperlink ref="B104" r:id="rId105" display="biolgrad@mcmaster.ca" xr:uid="{20949C04-EEA8-41F9-AE9B-CEAACE6AE365}"/>
-    <hyperlink ref="D48" r:id="rId106" xr:uid="{E7248BCF-D5E6-471C-9AD4-A375CA658F0A}"/>
-    <hyperlink ref="C48" r:id="rId107" xr:uid="{F54B3910-2C37-4C5D-B937-B2E9DD630FA5}"/>
-    <hyperlink ref="F40" r:id="rId108" xr:uid="{78A6C2F5-BD74-41E4-9AC1-2F198EE41690}"/>
+    <hyperlink ref="B87" r:id="rId100" display="askandalis@brocku.ca" xr:uid="{D10E3622-F858-4704-BE04-9658A397EAA1}"/>
+    <hyperlink ref="B88" r:id="rId101" xr:uid="{D359721B-FF96-4DFE-B4A8-614EE53F1A30}"/>
+    <hyperlink ref="B93" r:id="rId102" display="kkuepfercrane@wlu.ca" xr:uid="{939D39E6-809A-4FE2-A7D9-7A5262706E49}"/>
+    <hyperlink ref="B94" r:id="rId103" display="newman01@uoguelph.ca, ibchair@uoguelph.ca" xr:uid="{3CA92E8B-25B9-4C3F-A7B0-FF3C549C1D9C}"/>
+    <hyperlink ref="B102" r:id="rId104" xr:uid="{FBC48548-79A4-4664-AE05-B3B0CBCB9809}"/>
+    <hyperlink ref="B105" r:id="rId105" display="biolgrad@mcmaster.ca" xr:uid="{20949C04-EEA8-41F9-AE9B-CEAACE6AE365}"/>
+    <hyperlink ref="D49" r:id="rId106" xr:uid="{E7248BCF-D5E6-471C-9AD4-A375CA658F0A}"/>
+    <hyperlink ref="C49" r:id="rId107" xr:uid="{F54B3910-2C37-4C5D-B937-B2E9DD630FA5}"/>
+    <hyperlink ref="F41" r:id="rId108" xr:uid="{78A6C2F5-BD74-41E4-9AC1-2F198EE41690}"/>
     <hyperlink ref="O45" r:id="rId109" xr:uid="{2CEA2FE6-76E6-4ED7-87B6-EDF9132F6CE2}"/>
     <hyperlink ref="R7" r:id="rId110" display="david.williams@stantec.com" xr:uid="{95160207-5604-4787-B658-52C1499ECD55}"/>
     <hyperlink ref="D15" r:id="rId111" xr:uid="{6743FFE8-DE1D-45A7-A671-826F7E673519}"/>
     <hyperlink ref="C4" r:id="rId112" xr:uid="{FAC6A72D-4955-45B6-812A-2DC18308A6B3}"/>
-    <hyperlink ref="B82" r:id="rId113" display="Joel Levine joel.levine@utoronto.ca" xr:uid="{1A3ADCC8-C5CE-42D8-A48B-FEFDD17BEBAD}"/>
-    <hyperlink ref="F120" r:id="rId114" xr:uid="{7C6A4476-2ED0-4352-B333-195E26972D07}"/>
+    <hyperlink ref="B83" r:id="rId113" display="Joel Levine joel.levine@utoronto.ca" xr:uid="{1A3ADCC8-C5CE-42D8-A48B-FEFDD17BEBAD}"/>
+    <hyperlink ref="F121" r:id="rId114" xr:uid="{7C6A4476-2ED0-4352-B333-195E26972D07}"/>
     <hyperlink ref="M19" r:id="rId115" xr:uid="{1B5AE241-73FE-4D44-9BA7-7F4DB5CCF82B}"/>
-    <hyperlink ref="F64" r:id="rId116" xr:uid="{3C9C74F5-B5EA-4F86-940E-36541AFD6D6C}"/>
+    <hyperlink ref="F65" r:id="rId116" xr:uid="{3C9C74F5-B5EA-4F86-940E-36541AFD6D6C}"/>
     <hyperlink ref="M65" r:id="rId117" xr:uid="{F42B9001-F98B-4C51-A8FD-BBAF715DED46}"/>
-    <hyperlink ref="D49" r:id="rId118" xr:uid="{8D0A8143-666A-49C1-8233-576168A2BC62}"/>
-    <hyperlink ref="C49" r:id="rId119" xr:uid="{1262E152-68DE-4FD6-8CF1-72F7617B632D}"/>
+    <hyperlink ref="D50" r:id="rId118" xr:uid="{8D0A8143-666A-49C1-8233-576168A2BC62}"/>
+    <hyperlink ref="C50" r:id="rId119" xr:uid="{1262E152-68DE-4FD6-8CF1-72F7617B632D}"/>
     <hyperlink ref="M20" r:id="rId120" xr:uid="{ECFFAFEA-55CF-4A08-AF85-169B791D5D93}"/>
     <hyperlink ref="L20" r:id="rId121" xr:uid="{E6E29F80-7317-44B3-907E-44BEC6CC307E}"/>
-    <hyperlink ref="D52" r:id="rId122" xr:uid="{4A2E5E94-EE60-4678-9C80-85A30BF56DDB}"/>
-    <hyperlink ref="D51" r:id="rId123" xr:uid="{D3DD1C4E-C5D6-4CEA-ACFD-E6A0C8829A3E}"/>
-    <hyperlink ref="D50" r:id="rId124" xr:uid="{A6C0FB48-D33F-402F-A480-195B866E1A56}"/>
-    <hyperlink ref="C50" r:id="rId125" xr:uid="{89EF15A3-C280-47C3-8C83-E4972B23D32E}"/>
-    <hyperlink ref="D53" r:id="rId126" xr:uid="{DCAACB3B-4991-4761-B3A2-946A47F16697}"/>
-    <hyperlink ref="D54" r:id="rId127" xr:uid="{59C3941A-AC2E-4AC8-91B6-D1D9E719B44E}"/>
-    <hyperlink ref="C54" r:id="rId128" xr:uid="{4D8A0489-D517-4D6A-8695-0FCFC3D4904F}"/>
-    <hyperlink ref="D55" r:id="rId129" xr:uid="{D4E76491-CDB1-4A2F-B0D2-8D111D34DEA9}"/>
-    <hyperlink ref="C55" r:id="rId130" xr:uid="{73C4C459-379C-4E63-B6A8-5A309399F1C8}"/>
-    <hyperlink ref="D56" r:id="rId131" xr:uid="{57C5DDE2-276C-49B2-8ABE-89FFADF98433}"/>
-    <hyperlink ref="C56" r:id="rId132" xr:uid="{4E5750DD-C009-47CB-BBFE-8A5F016D6A6B}"/>
-    <hyperlink ref="B108" r:id="rId133" display="ssabatinos@torontomu.ca" xr:uid="{6EB9F945-23A7-4715-A154-FE335AC69165}"/>
+    <hyperlink ref="D53" r:id="rId122" xr:uid="{4A2E5E94-EE60-4678-9C80-85A30BF56DDB}"/>
+    <hyperlink ref="D52" r:id="rId123" xr:uid="{D3DD1C4E-C5D6-4CEA-ACFD-E6A0C8829A3E}"/>
+    <hyperlink ref="D51" r:id="rId124" xr:uid="{A6C0FB48-D33F-402F-A480-195B866E1A56}"/>
+    <hyperlink ref="C51" r:id="rId125" xr:uid="{89EF15A3-C280-47C3-8C83-E4972B23D32E}"/>
+    <hyperlink ref="D54" r:id="rId126" xr:uid="{DCAACB3B-4991-4761-B3A2-946A47F16697}"/>
+    <hyperlink ref="D55" r:id="rId127" xr:uid="{59C3941A-AC2E-4AC8-91B6-D1D9E719B44E}"/>
+    <hyperlink ref="C55" r:id="rId128" xr:uid="{4D8A0489-D517-4D6A-8695-0FCFC3D4904F}"/>
+    <hyperlink ref="D56" r:id="rId129" xr:uid="{D4E76491-CDB1-4A2F-B0D2-8D111D34DEA9}"/>
+    <hyperlink ref="C56" r:id="rId130" xr:uid="{73C4C459-379C-4E63-B6A8-5A309399F1C8}"/>
+    <hyperlink ref="D57" r:id="rId131" xr:uid="{57C5DDE2-276C-49B2-8ABE-89FFADF98433}"/>
+    <hyperlink ref="C57" r:id="rId132" xr:uid="{4E5750DD-C009-47CB-BBFE-8A5F016D6A6B}"/>
+    <hyperlink ref="B109" r:id="rId133" display="ssabatinos@torontomu.ca" xr:uid="{6EB9F945-23A7-4715-A154-FE335AC69165}"/>
     <hyperlink ref="O36" r:id="rId134" display="zoe@beco-birds.org" xr:uid="{48980895-458B-4A01-90BD-11BD3989720E}"/>
     <hyperlink ref="M21" r:id="rId135" xr:uid="{B81CA47A-F25D-4998-A9D2-232B1DE148CE}"/>
     <hyperlink ref="D17" r:id="rId136" xr:uid="{28E8365D-B2B6-4640-A92D-C7AB222E1750}"/>
-    <hyperlink ref="B98" r:id="rId137" xr:uid="{2C9819D7-E30B-4439-9008-29682418214B}"/>
+    <hyperlink ref="B99" r:id="rId137" xr:uid="{2C9819D7-E30B-4439-9008-29682418214B}"/>
     <hyperlink ref="F15" r:id="rId138" display="jbodily@aum.edu" xr:uid="{DED9DEFE-B0D5-452A-8EB6-EABE87450EAE}"/>
-    <hyperlink ref="C57" r:id="rId139" xr:uid="{BEAA4776-A77B-4660-B6E6-76F11E171AF6}"/>
+    <hyperlink ref="C58" r:id="rId139" xr:uid="{BEAA4776-A77B-4660-B6E6-76F11E171AF6}"/>
     <hyperlink ref="F3" r:id="rId140" xr:uid="{6E558CF5-FDBE-460F-B59E-4989A759DA2C}"/>
-    <hyperlink ref="D61" r:id="rId141" xr:uid="{6B13354E-1371-4DB8-9CCB-B5BDE9F74DB4}"/>
+    <hyperlink ref="D62" r:id="rId141" xr:uid="{6B13354E-1371-4DB8-9CCB-B5BDE9F74DB4}"/>
     <hyperlink ref="H16" r:id="rId142" xr:uid="{252B86C0-C450-48DD-A320-733CB61B9FCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
